--- a/表格处理学习.xlsx
+++ b/表格处理学习.xlsx
@@ -4,20 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="合并单元格" sheetId="1" r:id="rId1"/>
     <sheet name="智能填充" sheetId="2" r:id="rId2"/>
     <sheet name="转置" sheetId="3" r:id="rId3"/>
     <sheet name="跳过空白单元格" sheetId="4" r:id="rId4"/>
+    <sheet name="定位" sheetId="5" r:id="rId5"/>
+    <sheet name="排序" sheetId="6" r:id="rId6"/>
+    <sheet name="求和" sheetId="7" r:id="rId7"/>
+    <sheet name="vlookup" sheetId="8" r:id="rId8"/>
+    <sheet name="表1" sheetId="9" r:id="rId9"/>
+    <sheet name="表2" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">排序!$A$1:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>福建</t>
   </si>
@@ -80,25 +89,114 @@
   </si>
   <si>
     <t>花吉良</t>
+  </si>
+  <si>
+    <t>姓名1</t>
+  </si>
+  <si>
+    <t>姓名2</t>
+  </si>
+  <si>
+    <t>包宏伟</t>
+  </si>
+  <si>
+    <t>张䡛</t>
+  </si>
+  <si>
+    <t>梅林海</t>
+  </si>
+  <si>
+    <t>孙漂亮</t>
+  </si>
+  <si>
+    <t>莫海蓝</t>
+  </si>
+  <si>
+    <t>李六海</t>
+  </si>
+  <si>
+    <t>条件格式-色阶</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>alt+= 求和</t>
+  </si>
+  <si>
+    <t>定位空值 求和</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>成绩</t>
+  </si>
+  <si>
+    <t>地市</t>
+  </si>
+  <si>
+    <t>烟台</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>毛</t>
+  </si>
+  <si>
+    <t>铭</t>
+  </si>
+  <si>
+    <t>张可</t>
+  </si>
+  <si>
+    <t>徐晓辉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -553,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,37 +663,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,100 +696,121 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1036,7 +1149,7 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1044,7 +1157,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1052,11 +1165,55 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>VLOOKUP(A2,表1!A1:B8,2)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +1262,10 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>1003</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1116,10 +1273,10 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>1007</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1144,34 +1301,34 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="6">
         <v>44963</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="6">
         <v>44964</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="6">
         <v>44965</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="6">
         <v>44966</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="6">
         <v>44967</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="6">
         <v>44968</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="6">
         <v>44969</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="6">
         <v>44970</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="6">
         <v>44971</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="6">
         <v>44972</v>
       </c>
     </row>
@@ -1219,7 +1376,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>44963</v>
       </c>
       <c r="B4">
@@ -1227,7 +1384,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>44964</v>
       </c>
       <c r="B5">
@@ -1235,7 +1392,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>44965</v>
       </c>
       <c r="B6">
@@ -1243,7 +1400,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>44966</v>
       </c>
       <c r="B7">
@@ -1251,7 +1408,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>44967</v>
       </c>
       <c r="B8">
@@ -1259,7 +1416,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>44968</v>
       </c>
       <c r="B9">
@@ -1267,7 +1424,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>44969</v>
       </c>
       <c r="B10">
@@ -1275,7 +1432,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>44970</v>
       </c>
       <c r="B11">
@@ -1283,7 +1440,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>44971</v>
       </c>
       <c r="B12">
@@ -1291,7 +1448,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>44972</v>
       </c>
       <c r="B13">
@@ -1309,8 +1466,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1399,4 +1556,434 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1 B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.0090909090909" customWidth="1"/>
+    <col min="2" max="2" width="14.1" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4831.2</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B5">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:B5">
+    <sortCondition ref="B2" descending="1"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1038b24c-69fb-4396-8212-d90f1f657d0e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1038b24c-69fb-4396-8212-d90f1f657d0e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>299</v>
+      </c>
+      <c r="D2">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>88</v>
+      </c>
+      <c r="F2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>320</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>292.5</v>
+      </c>
+      <c r="D4">
+        <v>50.5</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>283.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v>215.5</v>
+      </c>
+      <c r="E5">
+        <f>SUM(E2:E4)</f>
+        <v>238</v>
+      </c>
+      <c r="F5">
+        <f>SUM(F2:F4)</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f>SUM(A2:A5)</f>
+        <v>1195</v>
+      </c>
+      <c r="D6">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>98</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>54.5</v>
+      </c>
+      <c r="F7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D6:D8)</f>
+        <v>223</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E6:E8)</f>
+        <v>216.5</v>
+      </c>
+      <c r="F9">
+        <f>SUM(F6:F8)</f>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>